--- a/tablitasProyecto.xlsx
+++ b/tablitasProyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okron\DAMD\ProyectoFinalSergioRamos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94A9FD-0CEF-45FD-BCF8-8D83C5E13A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E17D32-B368-4131-85CE-C86874EEAAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>HU</t>
   </si>
@@ -76,6 +76,126 @@
   </si>
   <si>
     <t>El usuario es único por id en la base de datos y no puede repetir Email, se cumplen una serie de condiciones como longitud de textos y al registrar al usuario se crea un directorio con dos archivos diferentes en la carpeta local de la aplicación.</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción </t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Tab Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clicar </t>
+  </si>
+  <si>
+    <t>Cuando se clica en los tab page cambian las páginas</t>
+  </si>
+  <si>
+    <t>Botones Cargar Imagen</t>
+  </si>
+  <si>
+    <t>clicar y seleccionar</t>
+  </si>
+  <si>
+    <t>Ambos botones cargan las imágenes correctamente en los picbox</t>
+  </si>
+  <si>
+    <t>boton insertar</t>
+  </si>
+  <si>
+    <t>clicar</t>
+  </si>
+  <si>
+    <t>boton borrar</t>
+  </si>
+  <si>
+    <t>boton actualizar</t>
+  </si>
+  <si>
+    <t>boton borrar usuario</t>
+  </si>
+  <si>
+    <t>si se han rellenado los datos se insertará la guitarra en la base de datos</t>
+  </si>
+  <si>
+    <t>si se han rellenado los datos se borrara el email de la base de datos</t>
+  </si>
+  <si>
+    <t>si se han rellenado los datos se borrará la guitarra de la base de datos</t>
+  </si>
+  <si>
+    <t>si se han rellenado los datos se actualizará la guitarra de la base de datos</t>
+  </si>
+  <si>
+    <t>cell click</t>
+  </si>
+  <si>
+    <t>se rellenan los datos en la ventana de actualizar al clicar en una guitarra, y si se clica en las de borrar avisa de la necesidad de introducir manualmente</t>
+  </si>
+  <si>
+    <t>linkTérminos</t>
+  </si>
+  <si>
+    <t>Se abre el formulario que contiene los datos de términos y condiciones</t>
+  </si>
+  <si>
+    <t>boton login</t>
+  </si>
+  <si>
+    <t>boton crear cuenta</t>
+  </si>
+  <si>
+    <t>Nos lleva al buscador si los datos corresponden con la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos lleva al registro </t>
+  </si>
+  <si>
+    <t>botones de volver</t>
+  </si>
+  <si>
+    <t>Nos devuelven al formulario previo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton registro </t>
+  </si>
+  <si>
+    <t>Si se cumplen unas condiciones básicas, crea usuario, directorio y lo introduce en la base de datos.</t>
+  </si>
+  <si>
+    <t>boton historial</t>
+  </si>
+  <si>
+    <t>Muestra por pantalla el historial del usuario</t>
+  </si>
+  <si>
+    <t>boton buscar</t>
+  </si>
+  <si>
+    <t>cellBuscar</t>
+  </si>
+  <si>
+    <t>busca en la base de datos si hay resultados que concuerden con el del textbox</t>
+  </si>
+  <si>
+    <t>si hay resultados, se podra clicar en uno para mostrar la guitarra</t>
+  </si>
+  <si>
+    <t>botonComparar</t>
+  </si>
+  <si>
+    <t>cellComparar</t>
+  </si>
+  <si>
+    <t>linksTiendas</t>
+  </si>
+  <si>
+    <t>nos llevara a la pagina de reverb de dicha guitarra</t>
   </si>
 </sst>
 </file>
@@ -157,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,6 +290,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -453,17 +579,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A8:D18"/>
+  <dimension ref="A8:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -547,11 +673,220 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
